--- a/Randomizer/Minecraft Randomizer S.xlsx
+++ b/Randomizer/Minecraft Randomizer S.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jticehurst\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8A40C9-3A7E-414F-8244-3D57198E0206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D73B0EA-7048-4D8C-95E9-C672A69130DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{816ED4D1-5B0D-47B8-B870-52A30D27D88A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{816ED4D1-5B0D-47B8-B870-52A30D27D88A}"/>
   </bookViews>
   <sheets>
     <sheet name="Block Drops" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="408">
   <si>
     <t>Starting Item</t>
   </si>
@@ -1177,6 +1177,90 @@
   </si>
   <si>
     <t>Arrow</t>
+  </si>
+  <si>
+    <t>Obsidian</t>
+  </si>
+  <si>
+    <t>Oxidized Cut Copper Stairs</t>
+  </si>
+  <si>
+    <t>Brown Stained Glass Pane</t>
+  </si>
+  <si>
+    <t>Spruce Pressure Plate</t>
+  </si>
+  <si>
+    <t>Block of Raw Gold</t>
+  </si>
+  <si>
+    <t>Cyan Glazed Terracotta</t>
+  </si>
+  <si>
+    <t>Farm Loot</t>
+  </si>
+  <si>
+    <t>Red Wool</t>
+  </si>
+  <si>
+    <t>Weeping Vines (ST)</t>
+  </si>
+  <si>
+    <t>Snowballs</t>
+  </si>
+  <si>
+    <t>4 Birch Logs</t>
+  </si>
+  <si>
+    <t>4 Polished Diorite</t>
+  </si>
+  <si>
+    <t>3 Polished Diorite</t>
+  </si>
+  <si>
+    <t>4 Snowball</t>
+  </si>
+  <si>
+    <t>8 Cyan Concrete Powder</t>
+  </si>
+  <si>
+    <t>Polished Diorite</t>
+  </si>
+  <si>
+    <t>Crimson Fence</t>
+  </si>
+  <si>
+    <t>Polished Deepslate Slab</t>
+  </si>
+  <si>
+    <t>Sea Lantern</t>
+  </si>
+  <si>
+    <t>Diorite Stairs</t>
+  </si>
+  <si>
+    <t>Brown Candle</t>
+  </si>
+  <si>
+    <t>Chiseled Polished Blackstone</t>
+  </si>
+  <si>
+    <t>Orange Stained Glass</t>
+  </si>
+  <si>
+    <t>Magenta Glazed Terracotta</t>
+  </si>
+  <si>
+    <t>Black Glazed Terrcotta</t>
+  </si>
+  <si>
+    <t>Lily Pad</t>
+  </si>
+  <si>
+    <t>9 Copper Ingot</t>
+  </si>
+  <si>
+    <t>Barrel</t>
   </si>
 </sst>
 </file>
@@ -1586,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F76FAE-7F1D-4C96-BC7D-EF6AE8B09FDE}">
-  <dimension ref="A1:U94"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1602,7 +1686,7 @@
     <col min="6" max="6" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25" style="1" bestFit="1" customWidth="1"/>
@@ -2672,7 +2756,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>312</v>
       </c>
@@ -2686,7 +2770,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>313</v>
       </c>
@@ -2700,7 +2784,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>314</v>
       </c>
@@ -2711,7 +2795,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>315</v>
       </c>
@@ -2719,7 +2803,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>345</v>
       </c>
@@ -2730,7 +2814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>347</v>
       </c>
@@ -2738,7 +2822,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>348</v>
       </c>
@@ -2755,7 +2839,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>350</v>
       </c>
@@ -2763,7 +2847,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>351</v>
       </c>
@@ -2777,7 +2861,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>360</v>
       </c>
@@ -2791,12 +2875,18 @@
         <v>303</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B91" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>375</v>
       </c>
@@ -2804,7 +2894,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>376</v>
       </c>
@@ -2812,12 +2902,84 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2832,7 +2994,7 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3129,10 +3291,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3798926-1A3F-43C1-8748-DB5C6B663EC8}">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3362,6 +3524,38 @@
       </c>
       <c r="B20" s="1" t="s">
         <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
